--- a/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 7 - growth habits guide.xlsx
+++ b/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 7 - growth habits guide.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\proofs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F86CF05-8C28-4EEB-BEEA-73AFAAF8A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D261D0-424F-4E5B-A36F-F51CDF4EAD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
-    <sheet name="growth habit recoding" sheetId="10" r:id="rId1"/>
-    <sheet name="ferns recoding" sheetId="6" r:id="rId2"/>
-    <sheet name="coding of unscored species" sheetId="7" r:id="rId3"/>
-    <sheet name="original counts-unphotographed" sheetId="1" r:id="rId4"/>
-    <sheet name="final counts (unphotographed)" sheetId="4" r:id="rId5"/>
-    <sheet name="final counts (all species)" sheetId="8" r:id="rId6"/>
-    <sheet name="final counts (photographed)" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
+    <sheet name="growth habit recoding" sheetId="10" r:id="rId2"/>
+    <sheet name="ferns recoding" sheetId="6" r:id="rId3"/>
+    <sheet name="coding of unscored species" sheetId="7" r:id="rId4"/>
+    <sheet name="original counts-unphotographed" sheetId="1" r:id="rId5"/>
+    <sheet name="final counts (unphotographed)" sheetId="4" r:id="rId6"/>
+    <sheet name="final counts (all species)" sheetId="8" r:id="rId7"/>
+    <sheet name="final counts (photographed)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="630">
   <si>
     <t>shrub</t>
   </si>
@@ -1913,13 +1914,31 @@
   </si>
   <si>
     <t>cycads and grasstrees</t>
+  </si>
+  <si>
+    <t>New Phytologist Supporting Information</t>
+  </si>
+  <si>
+    <t>Photographs as an essential biodiversity resource: drivers of gaps in the vascular plant photographic record</t>
+  </si>
+  <si>
+    <t>Thomas Mesaglio, Hervé Sauquet, David Coleman, Elizabeth Wenk, William K Cornwell</t>
+  </si>
+  <si>
+    <t>Accepted 8 February 2023</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>Comprehensive guide to our growth habit analysis, including recoding process and preakdown of percentages across categories.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1930,6 +1949,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1957,10 +1984,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2274,6 +2301,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1312D-0DEE-4559-B5E3-D39054658B00}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB604155-0C58-4339-935C-283FCE02ACF7}">
   <dimension ref="A1:C128"/>
   <sheetViews>
@@ -3701,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62329DFF-86E4-48DA-B25C-A0AAC4761D4C}">
   <dimension ref="A1:B405"/>
   <sheetViews>
@@ -3773,7 +3845,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>99</v>
       </c>
       <c r="B8" t="s">
@@ -3853,7 +3925,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
@@ -3869,7 +3941,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
@@ -3901,7 +3973,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>89</v>
       </c>
       <c r="B24" t="s">
@@ -4133,7 +4205,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
@@ -4157,7 +4229,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
@@ -4205,7 +4277,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
@@ -4325,7 +4397,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>60</v>
       </c>
       <c r="B77" t="s">
@@ -4349,7 +4421,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>61</v>
       </c>
       <c r="B80" t="s">
@@ -4437,7 +4509,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>62</v>
       </c>
       <c r="B91" t="s">
@@ -4517,7 +4589,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>63</v>
       </c>
       <c r="B101" t="s">
@@ -4533,7 +4605,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>65</v>
       </c>
       <c r="B103" t="s">
@@ -4573,7 +4645,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>90</v>
       </c>
       <c r="B108" t="s">
@@ -4605,7 +4677,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>76</v>
       </c>
       <c r="B112" t="s">
@@ -4637,7 +4709,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>91</v>
       </c>
       <c r="B116" t="s">
@@ -4685,7 +4757,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>92</v>
       </c>
       <c r="B122" t="s">
@@ -4717,7 +4789,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>93</v>
       </c>
       <c r="B126" t="s">
@@ -4837,7 +4909,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>49</v>
       </c>
       <c r="B141" t="s">
@@ -4853,7 +4925,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" t="s">
@@ -4893,7 +4965,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>70</v>
       </c>
       <c r="B148" t="s">
@@ -4909,7 +4981,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>77</v>
       </c>
       <c r="B150" t="s">
@@ -4997,7 +5069,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>51</v>
       </c>
       <c r="B161" t="s">
@@ -5037,7 +5109,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>88</v>
       </c>
       <c r="B166" t="s">
@@ -5333,7 +5405,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>64</v>
       </c>
       <c r="B203" t="s">
@@ -5413,7 +5485,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>52</v>
       </c>
       <c r="B213" t="s">
@@ -5445,7 +5517,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>53</v>
       </c>
       <c r="B217" t="s">
@@ -5469,7 +5541,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>54</v>
       </c>
       <c r="B220" t="s">
@@ -5525,7 +5597,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>55</v>
       </c>
       <c r="B227" t="s">
@@ -5549,7 +5621,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>56</v>
       </c>
       <c r="B230" t="s">
@@ -5637,7 +5709,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>66</v>
       </c>
       <c r="B241" t="s">
@@ -5733,7 +5805,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>67</v>
       </c>
       <c r="B253" t="s">
@@ -5757,7 +5829,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>68</v>
       </c>
       <c r="B256" t="s">
@@ -5781,7 +5853,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>78</v>
       </c>
       <c r="B259" t="s">
@@ -5877,7 +5949,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>73</v>
       </c>
       <c r="B271" t="s">
@@ -5885,7 +5957,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>74</v>
       </c>
       <c r="B272" t="s">
@@ -5973,7 +6045,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>97</v>
       </c>
       <c r="B283" t="s">
@@ -6005,7 +6077,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>98</v>
       </c>
       <c r="B287" t="s">
@@ -6045,7 +6117,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>79</v>
       </c>
       <c r="B292" t="s">
@@ -6125,7 +6197,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>75</v>
       </c>
       <c r="B302" t="s">
@@ -6181,7 +6253,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>80</v>
       </c>
       <c r="B309" t="s">
@@ -6189,7 +6261,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>81</v>
       </c>
       <c r="B310" t="s">
@@ -6285,7 +6357,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>71</v>
       </c>
       <c r="B322" t="s">
@@ -6301,7 +6373,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>72</v>
       </c>
       <c r="B324" t="s">
@@ -6309,7 +6381,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B325" t="s">
@@ -6317,7 +6389,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B326" t="s">
@@ -6325,7 +6397,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B327" t="s">
@@ -6333,7 +6405,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B328" t="s">
@@ -6341,7 +6413,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B329" t="s">
@@ -6349,7 +6421,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B330" t="s">
@@ -6357,7 +6429,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B331" t="s">
@@ -6365,7 +6437,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>94</v>
       </c>
       <c r="B332" t="s">
@@ -6965,7 +7037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27D81B-81E2-4F34-A871-C86CA82E872C}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -6991,7 +7063,7 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6999,7 +7071,7 @@
       <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7007,7 +7079,7 @@
       <c r="A4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7015,7 +7087,7 @@
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7023,7 +7095,7 @@
       <c r="A6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7031,7 +7103,7 @@
       <c r="A7" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7224,7 +7296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293D1A1-B228-43E0-B612-9427AD834331}">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -7303,7 +7375,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -7311,7 +7383,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -7319,7 +7391,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -7327,7 +7399,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
       <c r="B12">
@@ -7335,7 +7407,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -7343,7 +7415,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -7351,7 +7423,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -7359,7 +7431,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -7630,7 +7702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68C7C9-2F00-4B36-8A40-E29639428FD7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7674,7 +7746,7 @@
         <v>1289</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">(B3/3715)*100</f>
+        <f t="shared" ref="C3:C11" si="0">(B3/3715)*100</f>
         <v>34.697173620457605</v>
       </c>
     </row>
@@ -7782,7 +7854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB6B8DE-FE85-4D1F-A7B9-465EEAC24C84}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7934,11 +8006,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C48B43-E605-4D93-B6A6-E9EC6A19FE56}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
